--- a/results/metric_df/SBA_metrics.xlsx
+++ b/results/metric_df/SBA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,657 +466,1197 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal</t>
+          <t>Fuc(a1-2)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4071165746156329</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.13128115550573</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.13128115550573</v>
+        <v>-0.2110012598835959</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>3.13128115550573</v>
+        <v>2.595682138220825</v>
       </c>
       <c r="F2" t="n">
-        <v>0.748175182481752</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.3085027923260101</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2743410817301984</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.145775448013074</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.145775448013074</v>
+        <v>-0.1321502295715561</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>3.145775448013074</v>
+        <v>2.54254757044753</v>
       </c>
       <c r="F3" t="n">
-        <v>2.031060000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.575145857614083</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1703757682638022</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.973940888302121</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.973940888302121</v>
+        <v>-0.1915732296053155</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>2.973940888302121</v>
+        <v>2.772549263611866</v>
       </c>
       <c r="F4" t="n">
-        <v>14.89044904490449</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.4200189891247524</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc</t>
+          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)[Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.51852261399739</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.119731842208471</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.119731842208471</v>
+        <v>-0.2650802215969289</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>3.119731842208471</v>
+        <v>2.085399217281141</v>
       </c>
       <c r="F5" t="n">
-        <v>3.056656834316568</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.9029794142254892</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1981366412766328</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.168148491175445</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.168148491175445</v>
+        <v>0.4071165746156329</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>3.168148491175445</v>
+        <v>3.13128115550573</v>
       </c>
       <c r="F6" t="n">
-        <v>4.131773645270947</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.234424633348246</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(a1-3)GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.370600569471202</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.224058460398829</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.224058460398829</v>
+        <v>-0.2743410817301984</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>3.224058460398829</v>
+        <v>5.74772148500621</v>
       </c>
       <c r="F7" t="n">
-        <v>0.512984631796513</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.883476175163344</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(a1-4)GalNAc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2729909658366461</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.136029023386898</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.136029023386898</v>
+        <v>-0.1703757682638022</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>3.136029023386898</v>
+        <v>2.973940888302121</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-4)']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-?']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>2.332801287369361</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(b1-3)Gal(a1-3)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4467155563974702</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.34788678340402</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.34788678340402</v>
+        <v>2.51852261399739</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>3.34788678340402</v>
+        <v>3.119731842208471</v>
       </c>
       <c r="F9" t="n">
-        <v>6.098600000000001</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.7661902446741994</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
+          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2751511512663298</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.305672870331619</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.305672870331619</v>
+        <v>-0.1981366412766328</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>3.305672870331619</v>
+        <v>5.94869387185979</v>
       </c>
       <c r="F10" t="n">
-        <v>6.183000000000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.695474309488004</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GalNAc(b1-4)Gal(b1-4)Glc</t>
+          <t>Gal(a1-3)GalNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6314278708198864</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.100918634996691</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.100918634996691</v>
+        <v>-0.1369896341982951</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>3.100918634996691</v>
+        <v>2.924296789951471</v>
       </c>
       <c r="F11" t="n">
-        <v>3.38974</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06424843636771579</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.71534416929608</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.71534416929608</v>
+        <v>-0.2231990594710757</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>2.71534416929608</v>
+        <v>3.041646710200382</v>
       </c>
       <c r="F12" t="n">
-        <v>3.482264893155983</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.2218727152890093</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.125387437280338</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.664576180536996</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.664576180536996</v>
+        <v>-0.259016273005053</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>2.664576180536996</v>
+        <v>2.265804668686911</v>
       </c>
       <c r="F13" t="n">
-        <v>7.274647535246475</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.2931815095715283</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1672059107430108</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2.254148443376134</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2145360474549808</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.031009669713944</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2.302631596004201</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3878380597922815</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>GalNAc(a1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.370600569471202</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.95592966075036</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4086351979972896</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>GalNAc(a1-4)GalNAc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.2729909658366461</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-4)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.84301540380317</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4177713791051667</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>GalNAc(b1-3)Gal(a1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.4467155563974702</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3.34788678340402</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.528692319566462</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.2751511512663298</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3.305672870331619</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.549848262204348</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>GalNAc(b1-4)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6314278708198864</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3.100918634996691</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.062102265955961</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Glc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.2729909658366461</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3.032245839233093</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2088856895525834</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2304317776743308</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2.305444953997026</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5310918656874432</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1689880919119305</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2.811005603344966</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2054283206614692</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2.123525408676395</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3702598580263008</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2652131010787771</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2.018571414702775</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2215637830990705</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>GlcNAc(b1-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2070426076486172</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3.086745354861214</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2088856895525834</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2602077349955026</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2.882726071713295</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7893121773985554</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2079966314685078</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2.515347223945951</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.192764024713514</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1060865906988786</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1.965267323824594</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4293113785960005</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.2659439382297395</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3.056995051628025</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.878091234767277</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.1210883121957489</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2.313004149460443</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.442924899864619</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.2537366112935253</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2.736093849598977</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4500024410031303</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1251922037357414</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2.155732876884809</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6206777157943073</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.2766186710156245</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3.068369033665478</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6424538400444744</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1617028351189648</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2.199804871457699</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7411025538823311</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.0311371460396693</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2.234692268713575</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7302058826827569</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0235209331445449</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2.179587502829705</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8512358205157541</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.251064067082589</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2.755303798268773</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2907896033899529</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.06424843636771579</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2.71534416929608</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8728743640939686</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.1861090800308194</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2.895485410038187</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3641241693070835</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.125387437280338</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2.664576180536996</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.519569766651961</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
           <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B42" t="n">
         <v>0.08397213005967839</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['GalNAc']</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>2.671783269639034</v>
       </c>
-      <c r="D14" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5.64785</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+      <c r="F42" t="n">
+        <v>1.011218607205335</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
